--- a/data/DataResults.xlsx
+++ b/data/DataResults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Desktop\College\Data Mining\Spotify Project\Polky Sensei Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Desktop\College\Data Mining\Spotify Project\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="282">
   <si>
     <t>Billy Ray Cyrus</t>
   </si>
@@ -525,18 +525,12 @@
     <t>03WKCY9wDhFUx0eWBsPRT5</t>
   </si>
   <si>
-    <t>10,000 Maniacs</t>
-  </si>
-  <si>
     <t>Like the Weather</t>
   </si>
   <si>
     <t>19X5dUlxVWC5jDg3eOysMz</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Seal</t>
   </si>
   <si>
@@ -868,6 +862,9 @@
   </si>
   <si>
     <t>danceability</t>
+  </si>
+  <si>
+    <t>10000 Maniacs</t>
   </si>
 </sst>
 </file>
@@ -1676,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1696,55 +1693,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
         <v>266</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>267</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" t="s">
         <v>268</v>
-      </c>
-      <c r="D1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J1" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N1" t="s">
-        <v>273</v>
-      </c>
-      <c r="O1" t="s">
-        <v>272</v>
-      </c>
-      <c r="P1" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -4929,63 +4926,66 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" t="s">
         <v>168</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>169</v>
       </c>
-      <c r="C62" t="s">
-        <v>170</v>
-      </c>
       <c r="D62">
         <v>4</v>
       </c>
-      <c r="E62" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" t="s">
-        <v>171</v>
-      </c>
-      <c r="H62" t="s">
-        <v>171</v>
-      </c>
-      <c r="I62" t="s">
-        <v>171</v>
-      </c>
-      <c r="J62" t="s">
-        <v>171</v>
-      </c>
-      <c r="K62" t="s">
-        <v>171</v>
-      </c>
-      <c r="L62" t="s">
-        <v>171</v>
-      </c>
-      <c r="M62" t="s">
-        <v>171</v>
-      </c>
-      <c r="N62" t="s">
-        <v>171</v>
-      </c>
-      <c r="O62" t="s">
-        <v>171</v>
-      </c>
-      <c r="P62" t="s">
-        <v>171</v>
+      <c r="E62">
+        <v>0.77</v>
+      </c>
+      <c r="F62">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>-17.452999999999999</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.112</v>
+      </c>
+      <c r="L62">
+        <v>3.4299999999999999E-3</v>
+      </c>
+      <c r="M62">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N62">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="O62">
+        <v>133.351</v>
+      </c>
+      <c r="P62">
+        <v>236653</v>
+      </c>
+      <c r="Q62">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" t="s">
         <v>172</v>
-      </c>
-      <c r="B63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" t="s">
-        <v>174</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -5035,10 +5035,10 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -5088,10 +5088,10 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -5141,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -5194,10 +5194,10 @@
         <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -5247,10 +5247,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -5300,10 +5300,10 @@
         <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -5353,10 +5353,10 @@
         <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -5406,10 +5406,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -5459,10 +5459,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -5512,10 +5512,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -5562,13 +5562,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" t="s">
         <v>195</v>
-      </c>
-      <c r="B74" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" t="s">
-        <v>197</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -5615,13 +5615,13 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -5671,10 +5671,10 @@
         <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -5721,13 +5721,13 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
         <v>202</v>
-      </c>
-      <c r="B77" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" t="s">
-        <v>204</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -5774,13 +5774,13 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" t="s">
         <v>205</v>
-      </c>
-      <c r="B78" t="s">
-        <v>206</v>
-      </c>
-      <c r="C78" t="s">
-        <v>207</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -5827,13 +5827,13 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" t="s">
         <v>208</v>
-      </c>
-      <c r="B79" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" t="s">
-        <v>210</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
         <v>211</v>
-      </c>
-      <c r="B80" t="s">
-        <v>212</v>
-      </c>
-      <c r="C80" t="s">
-        <v>213</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -5933,13 +5933,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" t="s">
         <v>214</v>
-      </c>
-      <c r="B81" t="s">
-        <v>215</v>
-      </c>
-      <c r="C81" t="s">
-        <v>216</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -5986,13 +5986,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" t="s">
         <v>217</v>
-      </c>
-      <c r="B82" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" t="s">
-        <v>219</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -6039,13 +6039,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" t="s">
         <v>220</v>
-      </c>
-      <c r="B83" t="s">
-        <v>221</v>
-      </c>
-      <c r="C83" t="s">
-        <v>222</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -6095,10 +6095,10 @@
         <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -6148,10 +6148,10 @@
         <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -6201,10 +6201,10 @@
         <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -6254,10 +6254,10 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -6307,10 +6307,10 @@
         <v>127</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -6357,13 +6357,13 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" t="s">
         <v>233</v>
-      </c>
-      <c r="B89" t="s">
-        <v>234</v>
-      </c>
-      <c r="C89" t="s">
-        <v>235</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -6410,13 +6410,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" t="s">
         <v>236</v>
-      </c>
-      <c r="B90" t="s">
-        <v>237</v>
-      </c>
-      <c r="C90" t="s">
-        <v>238</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -6466,10 +6466,10 @@
         <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -6519,10 +6519,10 @@
         <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -6572,10 +6572,10 @@
         <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -6622,13 +6622,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" t="s">
         <v>245</v>
-      </c>
-      <c r="B94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C94" t="s">
-        <v>247</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -6675,13 +6675,13 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" t="s">
         <v>248</v>
-      </c>
-      <c r="B95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C95" t="s">
-        <v>250</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -6728,13 +6728,13 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -6781,13 +6781,13 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -6834,13 +6834,13 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
+        <v>253</v>
+      </c>
+      <c r="B98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" t="s">
         <v>255</v>
-      </c>
-      <c r="B98" t="s">
-        <v>256</v>
-      </c>
-      <c r="C98" t="s">
-        <v>257</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -6887,13 +6887,13 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>256</v>
+      </c>
+      <c r="B99" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" t="s">
         <v>258</v>
-      </c>
-      <c r="B99" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" t="s">
-        <v>260</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -6940,13 +6940,13 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" t="s">
         <v>261</v>
-      </c>
-      <c r="B100" t="s">
-        <v>262</v>
-      </c>
-      <c r="C100" t="s">
-        <v>263</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -6993,13 +6993,13 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C101" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D101">
         <v>5</v>
